--- a/test.xlsx
+++ b/test.xlsx
@@ -54,9 +54,6 @@
     <t>[]</t>
   </si>
   <si>
-    <t>NBG</t>
-  </si>
-  <si>
     <t>Nath Bio-Genes</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Industry</t>
+  </si>
+  <si>
+    <t>AP</t>
   </si>
 </sst>
 </file>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:XFD28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -902,15 +902,15 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>627.89</v>
@@ -934,10 +934,10 @@
         <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
